--- a/Code/Results/Cases/Case_9_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13355864345267</v>
+        <v>13.76075420337059</v>
       </c>
       <c r="C2">
-        <v>7.491997016032843</v>
+        <v>7.351135543959575</v>
       </c>
       <c r="D2">
-        <v>5.422562271615128</v>
+        <v>5.344262717591915</v>
       </c>
       <c r="E2">
-        <v>8.391611760638876</v>
+        <v>7.964107367852824</v>
       </c>
       <c r="F2">
-        <v>29.6972327596813</v>
+        <v>26.55054720715894</v>
       </c>
       <c r="G2">
-        <v>43.04846224577622</v>
+        <v>37.2943986013198</v>
       </c>
       <c r="H2">
-        <v>3.08877702467823</v>
+        <v>2.871521636388596</v>
       </c>
       <c r="I2">
-        <v>4.112946555950928</v>
+        <v>3.846713032736267</v>
       </c>
       <c r="J2">
-        <v>13.64937674930037</v>
+        <v>12.5823136501673</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.41851886441135</v>
       </c>
       <c r="M2">
-        <v>11.11110692495051</v>
+        <v>14.69116762974638</v>
       </c>
       <c r="N2">
-        <v>6.799884435133189</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.43865351922096</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.051168328062434</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25003945603149</v>
+        <v>12.87790122794333</v>
       </c>
       <c r="C3">
-        <v>7.267074013273545</v>
+        <v>7.032614210046575</v>
       </c>
       <c r="D3">
-        <v>5.377737153170022</v>
+        <v>5.267041247829328</v>
       </c>
       <c r="E3">
-        <v>8.044741852580451</v>
+        <v>7.678708292386433</v>
       </c>
       <c r="F3">
-        <v>28.79745144442501</v>
+        <v>25.95237215629478</v>
       </c>
       <c r="G3">
-        <v>41.63869728404859</v>
+        <v>36.47829547592217</v>
       </c>
       <c r="H3">
-        <v>3.326486091372242</v>
+        <v>3.085551978710856</v>
       </c>
       <c r="I3">
-        <v>4.319653053091918</v>
+        <v>4.024834304285307</v>
       </c>
       <c r="J3">
-        <v>13.44602697600004</v>
+        <v>12.44694939517577</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.38527997967794</v>
       </c>
       <c r="M3">
-        <v>10.45653144058196</v>
+        <v>14.45555703893225</v>
       </c>
       <c r="N3">
-        <v>6.499543053577154</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.76307100923344</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.752955607452608</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.67736559449538</v>
+        <v>12.31599157079779</v>
       </c>
       <c r="C4">
-        <v>7.125102342662039</v>
+        <v>6.832321717635257</v>
       </c>
       <c r="D4">
-        <v>5.348562278629666</v>
+        <v>5.21848348306164</v>
       </c>
       <c r="E4">
-        <v>7.822097255836795</v>
+        <v>7.495639079532321</v>
       </c>
       <c r="F4">
-        <v>28.23255685378906</v>
+        <v>25.57841118094587</v>
       </c>
       <c r="G4">
-        <v>40.7477924838737</v>
+        <v>35.96827283892895</v>
       </c>
       <c r="H4">
-        <v>3.477579915259471</v>
+        <v>3.221717221610137</v>
       </c>
       <c r="I4">
-        <v>4.451542246152954</v>
+        <v>4.138844625005018</v>
       </c>
       <c r="J4">
-        <v>13.3200687320349</v>
+        <v>12.36150629216973</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.35775870515134</v>
       </c>
       <c r="M4">
-        <v>10.03374989387926</v>
+        <v>14.32301860248922</v>
       </c>
       <c r="N4">
-        <v>6.308237369319366</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.32666915870755</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.563420400409507</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4337945169486</v>
+        <v>12.07686810495161</v>
       </c>
       <c r="C5">
-        <v>7.068127971111321</v>
+        <v>6.754033251720324</v>
       </c>
       <c r="D5">
-        <v>5.336334663846682</v>
+        <v>5.199254192252425</v>
       </c>
       <c r="E5">
-        <v>7.725300005638011</v>
+        <v>7.416045553141114</v>
       </c>
       <c r="F5">
-        <v>27.97787500999919</v>
+        <v>25.40622659788574</v>
       </c>
       <c r="G5">
-        <v>40.34012954189344</v>
+        <v>35.72602991613109</v>
       </c>
       <c r="H5">
-        <v>3.540948563831286</v>
+        <v>3.278842464169378</v>
       </c>
       <c r="I5">
-        <v>4.509059346487805</v>
+        <v>4.189344258706917</v>
       </c>
       <c r="J5">
-        <v>13.26093475553363</v>
+        <v>12.31980241036642</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.33256519013147</v>
       </c>
       <c r="M5">
-        <v>9.858241482700365</v>
+        <v>14.26279911598324</v>
       </c>
       <c r="N5">
-        <v>6.229322010104359</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.14522012180515</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.485234846933277</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.38961992893244</v>
+        <v>12.03380327856974</v>
       </c>
       <c r="C6">
-        <v>7.060946001563546</v>
+        <v>6.746493717835906</v>
       </c>
       <c r="D6">
-        <v>5.334391519011014</v>
+        <v>5.197091224947944</v>
       </c>
       <c r="E6">
-        <v>7.704580276172547</v>
+        <v>7.398976767816238</v>
       </c>
       <c r="F6">
-        <v>27.90896503118921</v>
+        <v>25.35524262759746</v>
       </c>
       <c r="G6">
-        <v>40.22479537199327</v>
+        <v>35.64619920164635</v>
       </c>
       <c r="H6">
-        <v>3.552139218060524</v>
+        <v>3.288919406442428</v>
       </c>
       <c r="I6">
-        <v>4.521870697945865</v>
+        <v>4.201457222384868</v>
       </c>
       <c r="J6">
-        <v>13.24185632336715</v>
+        <v>12.3051236876515</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.31340827909435</v>
       </c>
       <c r="M6">
-        <v>9.831223934028179</v>
+        <v>14.24150691695093</v>
       </c>
       <c r="N6">
-        <v>6.216995933445832</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.11693037329449</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.472892990607354</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.66534242983486</v>
+        <v>12.30611964242723</v>
       </c>
       <c r="C7">
-        <v>7.130667208167599</v>
+        <v>6.843063826486941</v>
       </c>
       <c r="D7">
-        <v>5.348750838358622</v>
+        <v>5.222938590306237</v>
       </c>
       <c r="E7">
-        <v>7.808681417609038</v>
+        <v>7.484766363966353</v>
       </c>
       <c r="F7">
-        <v>28.15764504398244</v>
+        <v>25.48170107937632</v>
       </c>
       <c r="G7">
-        <v>40.6146098339895</v>
+        <v>35.90499990511479</v>
       </c>
       <c r="H7">
-        <v>3.480013583604306</v>
+        <v>3.224519853001142</v>
       </c>
       <c r="I7">
-        <v>4.460764268372255</v>
+        <v>4.149893354850388</v>
       </c>
       <c r="J7">
-        <v>13.29417261899367</v>
+        <v>12.28705946253031</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.29926624541043</v>
       </c>
       <c r="M7">
-        <v>10.03793416111555</v>
+        <v>14.27573817089063</v>
       </c>
       <c r="N7">
-        <v>6.30954301224636</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.32872392095129</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.563794001217888</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82439572253988</v>
+        <v>13.45005988224279</v>
       </c>
       <c r="C8">
-        <v>7.423520570962755</v>
+        <v>7.251696945182339</v>
       </c>
       <c r="D8">
-        <v>5.408155172177579</v>
+        <v>5.328535243847273</v>
       </c>
       <c r="E8">
-        <v>8.258811726703335</v>
+        <v>7.855644254854059</v>
       </c>
       <c r="F8">
-        <v>29.29875135684959</v>
+        <v>26.15978463206127</v>
       </c>
       <c r="G8">
-        <v>42.40576665549079</v>
+        <v>37.03134414366622</v>
       </c>
       <c r="H8">
-        <v>3.171684860027502</v>
+        <v>2.948076237327028</v>
       </c>
       <c r="I8">
-        <v>4.193974652409077</v>
+        <v>3.921639566964083</v>
       </c>
       <c r="J8">
-        <v>13.5470463551745</v>
+        <v>12.33773725314366</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.30229900177807</v>
       </c>
       <c r="M8">
-        <v>10.89783428295622</v>
+        <v>14.51430685121664</v>
       </c>
       <c r="N8">
-        <v>6.700778756126488</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.21339332220371</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.950522664926892</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.87001178049286</v>
+        <v>15.51430805726645</v>
       </c>
       <c r="C9">
-        <v>7.956935660173367</v>
+        <v>8.000089149293792</v>
       </c>
       <c r="D9">
-        <v>5.510569890302996</v>
+        <v>5.513889806055565</v>
       </c>
       <c r="E9">
-        <v>9.083384303658839</v>
+        <v>8.535293260157811</v>
       </c>
       <c r="F9">
-        <v>31.5481959088594</v>
+        <v>27.65956808443339</v>
       </c>
       <c r="G9">
-        <v>45.91657052774021</v>
+        <v>39.17189752449183</v>
       </c>
       <c r="H9">
-        <v>2.604144065318337</v>
+        <v>2.438179857210999</v>
       </c>
       <c r="I9">
-        <v>3.695490444451178</v>
+        <v>3.491881256486864</v>
       </c>
       <c r="J9">
-        <v>14.07629545299019</v>
+        <v>12.6457501794969</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.3843101130466</v>
       </c>
       <c r="M9">
-        <v>12.40707727105998</v>
+        <v>15.18538686636779</v>
       </c>
       <c r="N9">
-        <v>7.407118722505514</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.77079250723281</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.653909302506161</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.21431815372372</v>
+        <v>16.84703881857657</v>
       </c>
       <c r="C10">
-        <v>8.356422077971642</v>
+        <v>8.560036499154542</v>
       </c>
       <c r="D10">
-        <v>5.584659418349797</v>
+        <v>5.67825484292707</v>
       </c>
       <c r="E10">
-        <v>9.451154545496522</v>
+        <v>8.825616818803054</v>
       </c>
       <c r="F10">
-        <v>32.79456924049005</v>
+        <v>28.29279677286756</v>
       </c>
       <c r="G10">
-        <v>47.76558343404279</v>
+        <v>40.48682524235522</v>
       </c>
       <c r="H10">
-        <v>2.243282066632131</v>
+        <v>2.120055791841149</v>
       </c>
       <c r="I10">
-        <v>3.365349614855133</v>
+        <v>3.213311983765763</v>
       </c>
       <c r="J10">
-        <v>14.33562847074019</v>
+        <v>12.49006164249583</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.17787459540843</v>
       </c>
       <c r="M10">
-        <v>13.43435133632589</v>
+        <v>15.48186262047914</v>
       </c>
       <c r="N10">
-        <v>7.758161557792789</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.81841722608555</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.999649579098889</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.56473577347505</v>
+        <v>17.24077517987344</v>
       </c>
       <c r="C11">
-        <v>8.823148367013465</v>
+        <v>9.214449834478501</v>
       </c>
       <c r="D11">
-        <v>5.728652896496993</v>
+        <v>5.990871649954387</v>
       </c>
       <c r="E11">
-        <v>8.131210257109585</v>
+        <v>7.631391974957667</v>
       </c>
       <c r="F11">
-        <v>30.71152235988211</v>
+        <v>26.23654776664278</v>
       </c>
       <c r="G11">
-        <v>43.9194901159704</v>
+        <v>37.85632089591404</v>
       </c>
       <c r="H11">
-        <v>3.098751891435495</v>
+        <v>3.018082227285499</v>
       </c>
       <c r="I11">
-        <v>3.303495335472018</v>
+        <v>3.167959820035462</v>
       </c>
       <c r="J11">
-        <v>13.47707616993305</v>
+        <v>11.29054242643673</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.80295773108123</v>
       </c>
       <c r="M11">
-        <v>14.04228809684709</v>
+        <v>14.24969506960374</v>
       </c>
       <c r="N11">
-        <v>6.806528044518267</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.3853331452918</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.024253262556073</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58960891376922</v>
+        <v>17.31037631305058</v>
       </c>
       <c r="C12">
-        <v>9.229688947588752</v>
+        <v>9.6827558098</v>
       </c>
       <c r="D12">
-        <v>5.898074710178686</v>
+        <v>6.24970535795205</v>
       </c>
       <c r="E12">
-        <v>7.157823561641124</v>
+        <v>6.791498266237554</v>
       </c>
       <c r="F12">
-        <v>28.77386718111352</v>
+        <v>24.54686642788235</v>
       </c>
       <c r="G12">
-        <v>40.43885259806898</v>
+        <v>35.32267058839484</v>
       </c>
       <c r="H12">
-        <v>4.391184108634233</v>
+        <v>4.333497701475168</v>
       </c>
       <c r="I12">
-        <v>3.297078961555029</v>
+        <v>3.161647707990392</v>
       </c>
       <c r="J12">
-        <v>12.74107694124581</v>
+        <v>10.56488939474552</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.84738470854965</v>
       </c>
       <c r="M12">
-        <v>14.3442309344681</v>
+        <v>13.26757342890799</v>
       </c>
       <c r="N12">
-        <v>5.965626590581758</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.65088987458251</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.165754895858001</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.35581703174755</v>
+        <v>17.12634754227796</v>
       </c>
       <c r="C13">
-        <v>9.614688610115447</v>
+        <v>10.06832426433531</v>
       </c>
       <c r="D13">
-        <v>6.090132267931855</v>
+        <v>6.462210549675258</v>
       </c>
       <c r="E13">
-        <v>6.448470257499044</v>
+        <v>6.232758637153262</v>
       </c>
       <c r="F13">
-        <v>26.70054653397583</v>
+        <v>22.99764282798037</v>
       </c>
       <c r="G13">
-        <v>36.79969159479167</v>
+        <v>32.41814103652668</v>
       </c>
       <c r="H13">
-        <v>5.773735689369942</v>
+        <v>5.724720092897455</v>
       </c>
       <c r="I13">
-        <v>3.3473822723943</v>
+        <v>3.200856599547928</v>
       </c>
       <c r="J13">
-        <v>12.0166368762728</v>
+        <v>10.17466850378121</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.11068175856938</v>
       </c>
       <c r="M13">
-        <v>14.44557648979342</v>
+        <v>12.40613803329795</v>
       </c>
       <c r="N13">
-        <v>5.168038301550992</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.71758588736808</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.35512270204692</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.0698810784311</v>
+        <v>16.87846669168095</v>
       </c>
       <c r="C14">
-        <v>9.888426970382277</v>
+        <v>10.31330287858097</v>
       </c>
       <c r="D14">
-        <v>6.24024636285893</v>
+        <v>6.590615297894975</v>
       </c>
       <c r="E14">
-        <v>6.162724317199722</v>
+        <v>6.054831327602109</v>
       </c>
       <c r="F14">
-        <v>25.16211501876163</v>
+        <v>21.95021957970295</v>
       </c>
       <c r="G14">
-        <v>34.14022846811454</v>
+        <v>30.19815686134413</v>
       </c>
       <c r="H14">
-        <v>6.766585276213026</v>
+        <v>6.719888928182391</v>
       </c>
       <c r="I14">
-        <v>3.410484466737761</v>
+        <v>3.251890451648988</v>
       </c>
       <c r="J14">
-        <v>11.51398819396314</v>
+        <v>10.02129429556089</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.68080127829821</v>
       </c>
       <c r="M14">
-        <v>14.42934416798571</v>
+        <v>11.85847342616053</v>
       </c>
       <c r="N14">
-        <v>4.654939154266721</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.67686437290224</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.834960473034925</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94076926763703</v>
+        <v>16.76029874839798</v>
       </c>
       <c r="C15">
-        <v>9.945830522795436</v>
+        <v>10.35857603561423</v>
       </c>
       <c r="D15">
-        <v>6.275888769697498</v>
+        <v>6.609261085472553</v>
       </c>
       <c r="E15">
-        <v>6.119792350854741</v>
+        <v>6.038732765635178</v>
       </c>
       <c r="F15">
-        <v>24.73604979186592</v>
+        <v>21.69860797338567</v>
       </c>
       <c r="G15">
-        <v>33.41933245259041</v>
+        <v>29.56041785737822</v>
       </c>
       <c r="H15">
-        <v>7.000569901056345</v>
+        <v>6.953274105153846</v>
       </c>
       <c r="I15">
-        <v>3.442951419538226</v>
+        <v>3.279641995494641</v>
       </c>
       <c r="J15">
-        <v>11.38626633623934</v>
+        <v>10.02690115048179</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.59719813421649</v>
       </c>
       <c r="M15">
-        <v>14.38394563487063</v>
+        <v>11.73678435844134</v>
       </c>
       <c r="N15">
-        <v>4.53591923392512</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.62553808724428</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.715270807669794</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.41469034036857</v>
+        <v>16.23079668609416</v>
       </c>
       <c r="C16">
-        <v>9.718826648028667</v>
+        <v>10.10307192847891</v>
       </c>
       <c r="D16">
-        <v>6.201114120423187</v>
+        <v>6.448247541840675</v>
       </c>
       <c r="E16">
-        <v>6.058324439009992</v>
+        <v>5.989908135639336</v>
       </c>
       <c r="F16">
-        <v>24.50332283836477</v>
+        <v>21.89475365562599</v>
       </c>
       <c r="G16">
-        <v>33.15344838540693</v>
+        <v>29.07153112007916</v>
       </c>
       <c r="H16">
-        <v>6.82808306368455</v>
+        <v>6.769205425687687</v>
       </c>
       <c r="I16">
-        <v>3.578928744250296</v>
+        <v>3.392623235274972</v>
       </c>
       <c r="J16">
-        <v>11.4000306518247</v>
+        <v>10.45118753477198</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.83950979058558</v>
       </c>
       <c r="M16">
-        <v>13.95522168476752</v>
+        <v>11.8972871134891</v>
       </c>
       <c r="N16">
-        <v>4.511167528613719</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.20069596971038</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.701502126460488</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.16400520940856</v>
+        <v>15.95470169105177</v>
       </c>
       <c r="C17">
-        <v>9.384567659020547</v>
+        <v>9.759903991261663</v>
       </c>
       <c r="D17">
-        <v>6.05928083075958</v>
+        <v>6.265060777313318</v>
       </c>
       <c r="E17">
-        <v>6.120573583776488</v>
+        <v>6.004645082732855</v>
       </c>
       <c r="F17">
-        <v>25.15821961575044</v>
+        <v>22.57533603454442</v>
       </c>
       <c r="G17">
-        <v>34.38539153449805</v>
+        <v>29.9446238246166</v>
       </c>
       <c r="H17">
-        <v>6.143736026428162</v>
+        <v>6.072302778566947</v>
       </c>
       <c r="I17">
-        <v>3.650778281296368</v>
+        <v>3.453843546066713</v>
       </c>
       <c r="J17">
-        <v>11.67526699540006</v>
+        <v>10.83795086697227</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.25825791133204</v>
       </c>
       <c r="M17">
-        <v>13.62787060860079</v>
+        <v>12.28557590765472</v>
       </c>
       <c r="N17">
-        <v>4.756852794853422</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.88879657128813</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.958245653892908</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.12682628610832</v>
+        <v>15.8783726843694</v>
       </c>
       <c r="C18">
-        <v>8.944152796620806</v>
+        <v>9.309729612518037</v>
       </c>
       <c r="D18">
-        <v>5.864031149566553</v>
+        <v>6.041233574084294</v>
       </c>
       <c r="E18">
-        <v>6.521005491281564</v>
+        <v>6.291693452250731</v>
       </c>
       <c r="F18">
-        <v>26.710871527454</v>
+        <v>23.86164832363459</v>
       </c>
       <c r="G18">
-        <v>37.16309157920447</v>
+        <v>32.0812756034638</v>
       </c>
       <c r="H18">
-        <v>4.980715113555507</v>
+        <v>4.891508218324442</v>
       </c>
       <c r="I18">
-        <v>3.662500629005418</v>
+        <v>3.462601302053574</v>
       </c>
       <c r="J18">
-        <v>12.23669584056508</v>
+        <v>11.33492613507751</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.96232104249763</v>
       </c>
       <c r="M18">
-        <v>13.35331602276609</v>
+        <v>12.98410272076703</v>
       </c>
       <c r="N18">
-        <v>5.327210336759434</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.64342069917922</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.54091598648582</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.24993999657512</v>
+        <v>15.95781803995626</v>
       </c>
       <c r="C19">
-        <v>8.552715040395977</v>
+        <v>8.878884849544022</v>
       </c>
       <c r="D19">
-        <v>5.692281749241734</v>
+        <v>5.832922660359972</v>
       </c>
       <c r="E19">
-        <v>7.407772460912772</v>
+        <v>7.02872354320157</v>
       </c>
       <c r="F19">
-        <v>28.76253375093868</v>
+        <v>25.47349128592083</v>
       </c>
       <c r="G19">
-        <v>40.80137819157097</v>
+        <v>34.89133958365515</v>
       </c>
       <c r="H19">
-        <v>3.649339977423963</v>
+        <v>3.534199042489382</v>
       </c>
       <c r="I19">
-        <v>3.63735295369468</v>
+        <v>3.444806020158071</v>
       </c>
       <c r="J19">
-        <v>12.9667028614511</v>
+        <v>11.89801707245196</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.84126875185788</v>
       </c>
       <c r="M19">
-        <v>13.159515559672</v>
+        <v>13.87314504534337</v>
       </c>
       <c r="N19">
-        <v>6.179402426507401</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.48569950186666</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.405709417765134</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.83729125176628</v>
+        <v>16.48520699981135</v>
       </c>
       <c r="C20">
-        <v>8.274227686769725</v>
+        <v>8.471218960093999</v>
       </c>
       <c r="D20">
-        <v>5.56942796561292</v>
+        <v>5.639999513009579</v>
       </c>
       <c r="E20">
-        <v>9.31694562670339</v>
+        <v>8.716320107082986</v>
       </c>
       <c r="F20">
-        <v>32.26541421538606</v>
+        <v>28.06107891463185</v>
       </c>
       <c r="G20">
-        <v>46.92274325463748</v>
+        <v>39.68096320781842</v>
       </c>
       <c r="H20">
-        <v>2.340623155882319</v>
+        <v>2.203700662013521</v>
       </c>
       <c r="I20">
-        <v>3.479591423686439</v>
+        <v>3.316730295005745</v>
       </c>
       <c r="J20">
-        <v>14.19141416632019</v>
+        <v>12.64270349025231</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.18009056503609</v>
       </c>
       <c r="M20">
-        <v>13.18870041460287</v>
+        <v>15.3484949828457</v>
       </c>
       <c r="N20">
-        <v>7.667903099638833</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.56936904938771</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.911304190937224</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.89763427629807</v>
+        <v>17.50418195580324</v>
       </c>
       <c r="C21">
-        <v>8.537446368445508</v>
+        <v>8.766073296005333</v>
       </c>
       <c r="D21">
-        <v>5.613627475524713</v>
+        <v>5.779949538799389</v>
       </c>
       <c r="E21">
-        <v>9.877030491435434</v>
+        <v>9.199226851918782</v>
       </c>
       <c r="F21">
-        <v>33.70145553955848</v>
+        <v>28.37930313725612</v>
       </c>
       <c r="G21">
-        <v>49.18948338458781</v>
+        <v>42.18995450510987</v>
       </c>
       <c r="H21">
-        <v>2.020378551273607</v>
+        <v>1.92632170807292</v>
       </c>
       <c r="I21">
-        <v>3.215093887459147</v>
+        <v>3.102741843331956</v>
       </c>
       <c r="J21">
-        <v>14.57484621972187</v>
+        <v>11.78570698602551</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.97685913987356</v>
       </c>
       <c r="M21">
-        <v>13.91302220146366</v>
+        <v>15.53379925530238</v>
       </c>
       <c r="N21">
-        <v>8.128872606953564</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.29727534822919</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.363898726325242</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.5550563734879</v>
+        <v>18.13844924307924</v>
       </c>
       <c r="C22">
-        <v>8.710702074234401</v>
+        <v>8.958986442122134</v>
       </c>
       <c r="D22">
-        <v>5.643014923582066</v>
+        <v>5.881618395063434</v>
       </c>
       <c r="E22">
-        <v>10.15153196416991</v>
+        <v>9.433278334033215</v>
       </c>
       <c r="F22">
-        <v>34.54571203261175</v>
+        <v>28.49280517656589</v>
       </c>
       <c r="G22">
-        <v>50.50247886496669</v>
+        <v>43.7858766317295</v>
       </c>
       <c r="H22">
-        <v>1.828686400733915</v>
+        <v>1.76197511516399</v>
       </c>
       <c r="I22">
-        <v>3.038199611126423</v>
+        <v>2.955677819684075</v>
       </c>
       <c r="J22">
-        <v>14.79586390701093</v>
+        <v>11.18215238632959</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.79657771503589</v>
       </c>
       <c r="M22">
-        <v>14.37107833343538</v>
+        <v>15.60793938959375</v>
       </c>
       <c r="N22">
-        <v>8.352490403361223</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.75483461058516</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.581415109352783</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.21497339221494</v>
+        <v>17.80817259466307</v>
       </c>
       <c r="C23">
-        <v>8.611211657475684</v>
+        <v>8.846739394228731</v>
       </c>
       <c r="D23">
-        <v>5.626150259611437</v>
+        <v>5.815020056446856</v>
       </c>
       <c r="E23">
-        <v>10.01730285648854</v>
+        <v>9.317327035822915</v>
       </c>
       <c r="F23">
-        <v>34.16675823763</v>
+        <v>28.56793668055937</v>
       </c>
       <c r="G23">
-        <v>49.92847240216428</v>
+        <v>42.92585275700509</v>
       </c>
       <c r="H23">
-        <v>1.929118105527918</v>
+        <v>1.847037853170043</v>
       </c>
       <c r="I23">
-        <v>3.120754154711953</v>
+        <v>3.019394365847877</v>
       </c>
       <c r="J23">
-        <v>14.70452616336829</v>
+        <v>11.63405728326655</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.96471859020873</v>
       </c>
       <c r="M23">
-        <v>14.12249877800775</v>
+        <v>15.64620847015677</v>
       </c>
       <c r="N23">
-        <v>8.231539770255257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.50949736076366</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.465041637646806</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.85470326512922</v>
+        <v>16.49606847335246</v>
       </c>
       <c r="C24">
-        <v>8.240350920921276</v>
+        <v>8.405201529357536</v>
       </c>
       <c r="D24">
-        <v>5.561572869711581</v>
+        <v>5.616469714468283</v>
       </c>
       <c r="E24">
-        <v>9.473143656231692</v>
+        <v>8.857107790104772</v>
       </c>
       <c r="F24">
-        <v>32.59024641582037</v>
+        <v>28.32863848125661</v>
       </c>
       <c r="G24">
-        <v>47.50277465651194</v>
+        <v>40.14153167168535</v>
       </c>
       <c r="H24">
-        <v>2.319142712558414</v>
+        <v>2.182802383783802</v>
       </c>
       <c r="I24">
-        <v>3.459745721114329</v>
+        <v>3.294628644182096</v>
       </c>
       <c r="J24">
-        <v>14.31426070727454</v>
+        <v>12.74635832746163</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.34502751252992</v>
       </c>
       <c r="M24">
-        <v>13.15292501190563</v>
+        <v>15.51082775912626</v>
       </c>
       <c r="N24">
-        <v>7.762520084252422</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.53789720059066</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.007993522964508</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32913979787089</v>
+        <v>14.97156140014849</v>
       </c>
       <c r="C25">
-        <v>7.82705425066452</v>
+        <v>7.832247714325908</v>
       </c>
       <c r="D25">
-        <v>5.48569098732929</v>
+        <v>5.468271052919288</v>
       </c>
       <c r="E25">
-        <v>8.84948566649952</v>
+        <v>8.341859777297742</v>
       </c>
       <c r="F25">
-        <v>30.83536481102312</v>
+        <v>27.20603348795122</v>
       </c>
       <c r="G25">
-        <v>44.78366336067749</v>
+        <v>38.36241097987887</v>
       </c>
       <c r="H25">
-        <v>2.756146023009875</v>
+        <v>2.573712306543102</v>
       </c>
       <c r="I25">
-        <v>3.84174230924726</v>
+        <v>3.621312917459518</v>
       </c>
       <c r="J25">
-        <v>13.89154276572201</v>
+        <v>12.60112078373161</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.32893181497408</v>
       </c>
       <c r="M25">
-        <v>12.02676285723773</v>
+        <v>14.95744610544786</v>
       </c>
       <c r="N25">
-        <v>7.226227114696139</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.37870777308157</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.473632066669861</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
